--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1127,11 +1127,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="39360364"/>
-        <c:axId val="33602987"/>
+        <c:axId val="17685759"/>
+        <c:axId val="72786861"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39360364"/>
+        <c:axId val="17685759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="32"/>
@@ -1172,11 +1172,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="33602987"/>
+        <c:crossAx val="72786861"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="33602987"/>
+        <c:axId val="72786861"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1227,7 +1227,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="39360364"/>
+        <c:crossAx val="17685759"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1257,15 +1257,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>538200</xdr:colOff>
+      <xdr:colOff>565200</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>184680</xdr:colOff>
+      <xdr:colOff>211320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>67680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1273,8 +1273,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4233600" y="977760"/>
-        <a:ext cx="5190120" cy="3099600"/>
+        <a:off x="4260600" y="968760"/>
+        <a:ext cx="5189760" cy="3099240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1294,10 +1294,10 @@
   </sheetPr>
   <dimension ref="A1:AN131"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AF1" activeCellId="0" sqref="AF1"/>
-      <selection pane="bottomLeft" activeCell="AL48" activeCellId="0" sqref="AL48"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1"/>
+      <selection pane="bottomLeft" activeCell="Z121" activeCellId="0" sqref="Z121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2377,7 +2377,7 @@
         <v>8</v>
       </c>
       <c r="AA9" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB9" s="0" t="n">
         <v>2</v>
@@ -16189,7 +16189,7 @@
         <v>12</v>
       </c>
       <c r="AA128" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB128" s="0" t="n">
         <v>2</v>
